--- a/Data/EC/NIT-9014169641.xlsx
+++ b/Data/EC/NIT-9014169641.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9AF50F-52ED-40BB-A467-333CF715F384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8941A02D-25D3-4FF6-B458-9B53FB7DF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70F8EB33-F456-4A53-9247-4CB2A806E380}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C358C7C-F58F-4D1B-A573-26518A4129F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,6 +62,81 @@
     <t>GRUPO APICE INGENIERIA &amp; SERVICIOS SAS</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>1047467876</t>
+  </si>
+  <si>
+    <t>DAISON JOSE SERPA ZABALETA</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>73086402</t>
+  </si>
+  <si>
+    <t>WILLIAM ARMANDO TORRES LADEUS</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>73577953</t>
+  </si>
+  <si>
+    <t>WILBER MERCADO DIAZ</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1081806353</t>
+  </si>
+  <si>
+    <t>JAIME LUIS MEJIA PERTUZ</t>
+  </si>
+  <si>
+    <t>15672953</t>
+  </si>
+  <si>
+    <t>GABRIEL ANTONIO GUTIERREZ ARROYO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>19590349</t>
+  </si>
+  <si>
+    <t>JAIME ENRIQUE MEJIA SANTANA</t>
+  </si>
+  <si>
     <t>PPT</t>
   </si>
   <si>
@@ -71,52 +146,40 @@
     <t>CARLOS JAVIER MONTILLA GARCIA</t>
   </si>
   <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2207</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>73577953</t>
-  </si>
-  <si>
-    <t>WILBER MERCADO DIAZ</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1081806353</t>
-  </si>
-  <si>
-    <t>JAIME LUIS MEJIA PERTUZ</t>
-  </si>
-  <si>
-    <t>19590349</t>
-  </si>
-  <si>
-    <t>JAIME ENRIQUE MEJIA SANTANA</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
+    <t>79589047</t>
+  </si>
+  <si>
+    <t>YESID CAMPO PEREZ</t>
+  </si>
+  <si>
+    <t>20426089</t>
+  </si>
+  <si>
+    <t>DARLYN SORAYA AREVALO BLANQUICETT</t>
+  </si>
+  <si>
+    <t>2304</t>
   </si>
   <si>
     <t>20429692</t>
@@ -125,79 +188,46 @@
     <t>JAROL DIAZ GOMEZ</t>
   </si>
   <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>20426089</t>
-  </si>
-  <si>
-    <t>DARLYN SORAYA AREVALO BLANQUICETT</t>
-  </si>
-  <si>
     <t>1047506894</t>
   </si>
   <si>
     <t>LUIS FERNANDO CASSIANI GONZALEZ</t>
   </si>
   <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>73086402</t>
-  </si>
-  <si>
-    <t>WILLIAM ARMANDO TORRES LADEUS</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -611,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39272100-95A5-3E5B-400F-BEC7F70AAEC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E83E13-82B7-7459-9E0A-3FD609253487}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428A65E8-0E08-4375-ABDF-2CA355DEC6D3}">
-  <dimension ref="B2:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C3CF07-9CAC-45E1-8A28-B8B4E37ADDDC}">
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -987,7 +1017,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1062,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1094,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1317091</v>
+        <v>2071227</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,17 +1110,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1117,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,10 +1170,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1151,22 +1181,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F17" s="18">
-        <v>1333</v>
+        <v>45066</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1174,22 +1204,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>1333</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1200,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>1333</v>
       </c>
       <c r="G19" s="18">
         <v>1300000</v>
@@ -1220,22 +1250,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F20" s="18">
-        <v>1333</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1246,19 +1276,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1269,19 +1299,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,19 +1322,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1315,19 +1345,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1338,19 +1368,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1361,19 +1391,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1384,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1404,22 +1434,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
-        <v>9280</v>
+        <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1427,22 +1457,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
-        <v>1547</v>
+        <v>1333</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1450,19 +1480,19 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F30" s="18">
-        <v>12133</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1473,19 +1503,19 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1496,19 +1526,19 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="18">
-        <v>45066</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
         <v>1300000</v>
@@ -1519,19 +1549,19 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
         <v>1300000</v>
@@ -1542,19 +1572,19 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1565,19 +1595,19 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
         <v>1300000</v>
@@ -1588,19 +1618,19 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
         <v>1300000</v>
@@ -1611,19 +1641,19 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
         <v>1300000</v>
@@ -1634,19 +1664,19 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>34666</v>
       </c>
       <c r="G38" s="18">
         <v>1300000</v>
@@ -1657,22 +1687,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,22 +1710,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1703,22 +1733,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1726,22 +1756,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1749,22 +1779,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1772,22 +1802,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1795,22 +1825,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>1547</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1818,22 +1848,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>9280</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1841,16 +1871,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1863,56 +1893,447 @@
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="22" t="s">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F54" s="18">
         <v>52000</v>
       </c>
-      <c r="G48" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
+      <c r="G54" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="H53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="F65" s="24">
+        <v>12133</v>
+      </c>
+      <c r="G65" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="H70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014169641.xlsx
+++ b/Data/EC/NIT-9014169641.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8941A02D-25D3-4FF6-B458-9B53FB7DF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{379FE707-F0DC-4596-97DC-B4D4C8CDF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C358C7C-F58F-4D1B-A573-26518A4129F2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31FE5528-8276-4A90-AE4B-DF27036C5018}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,18 +62,90 @@
     <t>GRUPO APICE INGENIERIA &amp; SERVICIOS SAS</t>
   </si>
   <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5462600</t>
+  </si>
+  <si>
+    <t>CARLOS JAVIER MONTILLA GARCIA</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
-    <t>1047467876</t>
-  </si>
-  <si>
-    <t>DAISON JOSE SERPA ZABALETA</t>
+    <t>73577953</t>
+  </si>
+  <si>
+    <t>WILBER MERCADO DIAZ</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1081806353</t>
+  </si>
+  <si>
+    <t>JAIME LUIS MEJIA PERTUZ</t>
+  </si>
+  <si>
+    <t>19590349</t>
+  </si>
+  <si>
+    <t>JAIME ENRIQUE MEJIA SANTANA</t>
   </si>
   <si>
     <t>2209</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>20426089</t>
+  </si>
+  <si>
+    <t>DARLYN SORAYA AREVALO BLANQUICETT</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>20429692</t>
+  </si>
+  <si>
+    <t>JAROL DIAZ GOMEZ</t>
+  </si>
+  <si>
+    <t>1047506894</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO CASSIANI GONZALEZ</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
     <t>73086402</t>
   </si>
   <si>
@@ -83,151 +155,55 @@
     <t>2403</t>
   </si>
   <si>
-    <t>73577953</t>
-  </si>
-  <si>
-    <t>WILBER MERCADO DIAZ</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1081806353</t>
-  </si>
-  <si>
-    <t>JAIME LUIS MEJIA PERTUZ</t>
-  </si>
-  <si>
-    <t>15672953</t>
-  </si>
-  <si>
-    <t>GABRIEL ANTONIO GUTIERREZ ARROYO</t>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>19590349</t>
-  </si>
-  <si>
-    <t>JAIME ENRIQUE MEJIA SANTANA</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5462600</t>
-  </si>
-  <si>
-    <t>CARLOS JAVIER MONTILLA GARCIA</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>79589047</t>
-  </si>
-  <si>
-    <t>YESID CAMPO PEREZ</t>
-  </si>
-  <si>
-    <t>20426089</t>
-  </si>
-  <si>
-    <t>DARLYN SORAYA AREVALO BLANQUICETT</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>20429692</t>
-  </si>
-  <si>
-    <t>JAROL DIAZ GOMEZ</t>
-  </si>
-  <si>
-    <t>1047506894</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO CASSIANI GONZALEZ</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +302,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +317,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +517,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +561,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E83E13-82B7-7459-9E0A-3FD609253487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BF1213-AC45-E7D6-3705-6406BB758925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C3CF07-9CAC-45E1-8A28-B8B4E37ADDDC}">
-  <dimension ref="B2:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D38D02-09A5-4B3A-80E1-8B4BE9A7D507}">
+  <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1017,7 +993,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1038,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1070,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2071227</v>
+        <v>1421091</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,17 +1086,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1147,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1170,10 +1146,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1181,22 +1157,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>45066</v>
+        <v>1333</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1204,22 +1180,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>1333</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1227,7 +1203,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
@@ -1236,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>1333</v>
@@ -1253,19 +1229,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1299,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1322,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1345,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1368,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1391,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1414,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1434,22 +1410,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>35112</v>
+        <v>1547</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1457,22 +1433,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>1333</v>
+        <v>9280</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1480,19 +1456,19 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>12133</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1503,19 +1479,19 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1526,19 +1502,19 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>45066</v>
       </c>
       <c r="G32" s="18">
         <v>1300000</v>
@@ -1549,19 +1525,19 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
         <v>1300000</v>
@@ -1572,19 +1548,19 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1595,19 +1571,19 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
         <v>1300000</v>
@@ -1618,19 +1594,19 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
         <v>1300000</v>
@@ -1641,19 +1617,19 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
         <v>1300000</v>
@@ -1664,19 +1640,19 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="18">
-        <v>34666</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
         <v>1300000</v>
@@ -1687,22 +1663,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1710,22 +1686,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1733,22 +1709,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1756,22 +1732,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1779,22 +1755,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1802,22 +1778,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1825,22 +1801,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F45" s="18">
-        <v>1547</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1848,22 +1824,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F46" s="18">
-        <v>9280</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1871,16 +1847,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1894,16 +1870,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1917,16 +1893,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1939,401 +1915,56 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="18">
+      <c r="B50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="24">
         <v>52000</v>
       </c>
-      <c r="G50" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="G50" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="B55" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="24">
-        <v>12133</v>
-      </c>
-      <c r="G65" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="H70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="H71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="B56" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
